--- a/add-onエラー.xlsx
+++ b/add-onエラー.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23607"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CCB549320D21F9C5C8D02EC876603B36C638F9CA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="BookSheet" sheetId="2" r:id="rId2"/>
     <sheet name="Book" sheetId="3" r:id="rId3"/>
+    <sheet name="★最終エラー" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,8 +144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +807,49 @@
         <a:xfrm>
           <a:off x="114300" y="13944600"/>
           <a:ext cx="8042400" cy="4523850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="18285714" cy="10285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,24 +1123,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M2:N60"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:14">
+    <row r="2" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="13:14">
+    <row r="4" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="13:14">
+    <row r="5" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="13:14">
+    <row r="6" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="13:14">
+    <row r="7" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="13:14">
+    <row r="8" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="13:14">
+    <row r="9" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>10</v>
       </c>
@@ -1145,17 +1188,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="13:13">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M60" t="s">
         <v>13</v>
       </c>
@@ -1168,25 +1211,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M2:N60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:14">
+    <row r="2" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="13:14">
+    <row r="4" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="13:14">
+    <row r="5" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="13:14">
+    <row r="6" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="13:14">
+    <row r="7" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="13:14">
+    <row r="8" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="13:14">
+    <row r="9" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>10</v>
       </c>
@@ -1234,17 +1277,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="13:13">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M60" t="s">
         <v>13</v>
       </c>
@@ -1258,24 +1301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M2:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="C103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="13" max="13" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="13:14">
+    <row r="2" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="13:14">
+    <row r="4" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M4" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="13:14">
+    <row r="5" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M5" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="13:14">
+    <row r="6" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M6" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="13:14">
+    <row r="7" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M7" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="13:14">
+    <row r="8" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="13:14">
+    <row r="9" spans="13:14" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>10</v>
       </c>
@@ -1323,17 +1366,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="13:13">
+    <row r="22" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="13:13">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M60" t="s">
         <v>13</v>
       </c>
@@ -1343,4 +1386,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>